--- a/src/confluence/test_files/simple2.xlsx
+++ b/src/confluence/test_files/simple2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\workspace\confluence\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorweddle/Research/confluence/src/confluence/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F2A3F5-E84B-4A0E-87F8-C68A04F7A064}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46481C-EFE0-1041-B6EC-817587494055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1575" windowWidth="15375" windowHeight="8430" xr2:uid="{423E75E0-199A-4DF2-A619-CEB9F82764E8}"/>
+    <workbookView xWindow="1960" yWindow="1580" windowWidth="15380" windowHeight="8440" xr2:uid="{423E75E0-199A-4DF2-A619-CEB9F82764E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>foo</t>
+    <t>bar</t>
   </si>
   <si>
-    <t>bar</t>
+    <t>Sample Name</t>
   </si>
 </sst>
 </file>
@@ -391,20 +391,20 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
